--- a/AutomationTaskDigiValSolution/TestData/DigivalTask.xlsx
+++ b/AutomationTaskDigiValSolution/TestData/DigivalTask.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28f1b0c725bc2582/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\AutomationTaskDigiValSolution\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9EE19502-7293-483C-9191-74DA519A49C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F0237D-46C6-443F-B5FB-C349D2462730}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE9B4C-1192-4976-9FB7-9935D47D83B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{87730811-5A5B-4A2A-8D95-FE9B9699E560}"/>
+    <workbookView xWindow="3675" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{87730811-5A5B-4A2A-8D95-FE9B9699E560}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>INPUT</t>
   </si>
@@ -51,25 +51,44 @@
     <t>What we think, we become.</t>
   </si>
   <si>
-    <t>No seas lo mismo, sea mejor.</t>
+    <t>En lo que pensamos, nos convertimos.</t>
   </si>
   <si>
     <t>Tu único límite es tu mente.</t>
   </si>
   <si>
-    <t>No lo desees, trabaja para ello.</t>
-  </si>
-  <si>
-    <t>Ser un guerrero, no un angustiado.</t>
-  </si>
-  <si>
-    <t>En lo que pensamos, nos convertimos.</t>
+    <t>Ser un guerrero, no un angustiado</t>
+  </si>
+  <si>
+    <t>No seas lo mismo, sea mejor</t>
+  </si>
+  <si>
+    <t>No lo desees, trabaja para ello</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PasS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,14 +444,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.5703125"/>
+    <col min="2" max="2" customWidth="true" width="40.85546875"/>
+    <col min="3" max="3" customWidth="true" width="18.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -447,43 +466,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
